--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H2">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N2">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O2">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P2">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q2">
-        <v>0.0943122184438889</v>
+        <v>0.006163694658333334</v>
       </c>
       <c r="R2">
-        <v>0.848809965995</v>
+        <v>0.055473251925</v>
       </c>
       <c r="S2">
-        <v>0.001040766191042472</v>
+        <v>0.0001042196599936845</v>
       </c>
       <c r="T2">
-        <v>0.001040766191042472</v>
+        <v>0.0001042196599936845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H3">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I3">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J3">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q3">
-        <v>31.02764272483444</v>
+        <v>44.41125736532333</v>
       </c>
       <c r="R3">
-        <v>279.24878452351</v>
+        <v>399.70131628791</v>
       </c>
       <c r="S3">
-        <v>0.3424001902252469</v>
+        <v>0.7509337173684021</v>
       </c>
       <c r="T3">
-        <v>0.342400190225247</v>
+        <v>0.750933717368402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H4">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I4">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J4">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.392475</v>
       </c>
       <c r="O4">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P4">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q4">
-        <v>0.1842055683583333</v>
+        <v>0.263661696025</v>
       </c>
       <c r="R4">
-        <v>1.657850115225</v>
+        <v>2.372955264225</v>
       </c>
       <c r="S4">
-        <v>0.002032768721935824</v>
+        <v>0.004458159243163087</v>
       </c>
       <c r="T4">
-        <v>0.002032768721935824</v>
+        <v>0.004458159243163086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H5">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I5">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J5">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N5">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O5">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P5">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q5">
-        <v>0.1349933104216667</v>
+        <v>0.001994778547222222</v>
       </c>
       <c r="R5">
-        <v>1.214939793795</v>
+        <v>0.017953006925</v>
       </c>
       <c r="S5">
-        <v>0.00148969535254184</v>
+        <v>3.372898131368676E-05</v>
       </c>
       <c r="T5">
-        <v>0.00148969535254184</v>
+        <v>3.372898131368676E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H6">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I6">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J6">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.10861</v>
       </c>
       <c r="O6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q6">
-        <v>44.41125736532333</v>
+        <v>14.37297406154556</v>
       </c>
       <c r="R6">
-        <v>399.70131628791</v>
+        <v>129.35676655391</v>
       </c>
       <c r="S6">
-        <v>0.4900927571226005</v>
+        <v>0.2430273647263003</v>
       </c>
       <c r="T6">
-        <v>0.4900927571226006</v>
+        <v>0.2430273647263003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H7">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I7">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J7">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,208 +868,22 @@
         <v>0.392475</v>
       </c>
       <c r="O7">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P7">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q7">
-        <v>0.263661696025</v>
+        <v>0.08532977769166666</v>
       </c>
       <c r="R7">
-        <v>2.372955264225</v>
+        <v>0.767967999225</v>
       </c>
       <c r="S7">
-        <v>0.0029095930900936</v>
+        <v>0.001442810020827162</v>
       </c>
       <c r="T7">
-        <v>0.0029095930900936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.956731</v>
-      </c>
-      <c r="I8">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J8">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.06698166666666668</v>
-      </c>
-      <c r="N8">
-        <v>0.200945</v>
-      </c>
-      <c r="O8">
-        <v>0.003012576978541733</v>
-      </c>
-      <c r="P8">
-        <v>0.003012576978541732</v>
-      </c>
-      <c r="Q8">
-        <v>0.04368836786611112</v>
-      </c>
-      <c r="R8">
-        <v>0.393195310795</v>
-      </c>
-      <c r="S8">
-        <v>0.0004821154349574209</v>
-      </c>
-      <c r="T8">
-        <v>0.0004821154349574209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.956731</v>
-      </c>
-      <c r="I9">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J9">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>22.03620333333333</v>
-      </c>
-      <c r="N9">
-        <v>66.10861</v>
-      </c>
-      <c r="O9">
-        <v>0.9911034191912899</v>
-      </c>
-      <c r="P9">
-        <v>0.9911034191912899</v>
-      </c>
-      <c r="Q9">
-        <v>14.37297406154556</v>
-      </c>
-      <c r="R9">
-        <v>129.35676655391</v>
-      </c>
-      <c r="S9">
-        <v>0.1586104718434422</v>
-      </c>
-      <c r="T9">
-        <v>0.1586104718434422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.956731</v>
-      </c>
-      <c r="I10">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J10">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.130825</v>
-      </c>
-      <c r="N10">
-        <v>0.392475</v>
-      </c>
-      <c r="O10">
-        <v>0.005884003830168287</v>
-      </c>
-      <c r="P10">
-        <v>0.005884003830168286</v>
-      </c>
-      <c r="Q10">
-        <v>0.08532977769166666</v>
-      </c>
-      <c r="R10">
-        <v>0.7679679992249999</v>
-      </c>
-      <c r="S10">
-        <v>0.0009416420181388627</v>
-      </c>
-      <c r="T10">
-        <v>0.0009416420181388625</v>
+        <v>0.001442810020827162</v>
       </c>
     </row>
   </sheetData>
